--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,298 +43,286 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>died</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>fight</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>toilet</t>
@@ -698,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,7 +697,7 @@
         <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -817,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.84</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -859,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -867,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.76</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,13 +879,13 @@
         <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9545454545454546</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -909,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -917,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.726027397260274</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C6">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -967,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6578947368421053</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,31 +973,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6551724137931034</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1067,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6451612903225806</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6410256410256411</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -1135,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8611111111111112</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1159,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1167,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6333333333333333</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1185,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8359375</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L11">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1209,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1217,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5135135135135135</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1235,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8515625</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1259,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1267,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4705882352941176</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1285,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8292682926829268</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1309,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1317,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4341085271317829</v>
+        <v>0.4631782945736434</v>
       </c>
       <c r="C14">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D14">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1335,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8169014084507042</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L14">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1359,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1367,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1385,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8085106382978723</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1409,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1417,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4117647058823529</v>
+        <v>0.4</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1435,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7931034482758621</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1459,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1467,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4093959731543624</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C17">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1485,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1509,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1517,37 +1505,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3882978723404255</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="C18">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>0.7857142857142857</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1559,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1567,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3636363636363636</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1585,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7843137254901961</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1609,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1617,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3389830508474576</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1635,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1667,13 +1655,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3333333333333333</v>
+        <v>0.3375</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1685,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7358490566037735</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L21">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1709,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1717,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2727272727272727</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1735,31 +1723,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7301587301587301</v>
+        <v>0.7125</v>
       </c>
       <c r="L22">
+        <v>114</v>
+      </c>
+      <c r="M22">
+        <v>114</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>46</v>
-      </c>
-      <c r="M22">
-        <v>46</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1767,13 +1755,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.25</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1785,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7222222222222222</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1809,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1817,13 +1805,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2420634920634921</v>
+        <v>0.1447721179624665</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1835,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K24">
-        <v>0.71875</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L24">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="M24">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1859,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1867,37 +1855,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1559139784946237</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="C25">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F25">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>314</v>
+        <v>145</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K25">
-        <v>0.6919060052219321</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1909,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1917,37 +1905,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01123234916559692</v>
+        <v>0.0101419878296146</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="E26">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="F26">
-        <v>0.29</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3081</v>
+        <v>1952</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K26">
-        <v>0.6785714285714286</v>
+        <v>0.6553524804177546</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1959,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1967,37 +1955,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006421088205474822</v>
+        <v>0.00932475884244373</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E27">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="F27">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2940</v>
+        <v>3081</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K27">
-        <v>0.6785714285714286</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2009,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2017,13 +2005,13 @@
         <v>59</v>
       </c>
       <c r="K28">
-        <v>0.6744186046511628</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2035,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2043,13 +2031,13 @@
         <v>60</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.62</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2061,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2069,13 +2057,13 @@
         <v>61</v>
       </c>
       <c r="K30">
-        <v>0.6595744680851063</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="L30">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="M30">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2087,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2095,13 +2083,13 @@
         <v>62</v>
       </c>
       <c r="K31">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2113,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2121,13 +2109,13 @@
         <v>63</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L32">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2139,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2147,13 +2135,13 @@
         <v>64</v>
       </c>
       <c r="K33">
-        <v>0.5842696629213483</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L33">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="M33">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2165,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2173,13 +2161,13 @@
         <v>65</v>
       </c>
       <c r="K34">
-        <v>0.5757575757575758</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2191,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2199,13 +2187,13 @@
         <v>66</v>
       </c>
       <c r="K35">
-        <v>0.575</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2217,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2225,13 +2213,13 @@
         <v>67</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.5313807531380753</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2243,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2251,13 +2239,13 @@
         <v>68</v>
       </c>
       <c r="K37">
-        <v>0.5600000000000001</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2269,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2277,25 +2265,25 @@
         <v>69</v>
       </c>
       <c r="K38">
-        <v>0.5588235294117647</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2303,13 +2291,13 @@
         <v>70</v>
       </c>
       <c r="K39">
-        <v>0.5523012552301255</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L39">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2321,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2329,13 +2317,13 @@
         <v>71</v>
       </c>
       <c r="K40">
-        <v>0.5491525423728814</v>
+        <v>0.475</v>
       </c>
       <c r="L40">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2347,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2355,13 +2343,13 @@
         <v>72</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2373,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2381,13 +2369,13 @@
         <v>73</v>
       </c>
       <c r="K42">
-        <v>0.4923076923076923</v>
+        <v>0.4375</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2399,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2407,13 +2395,13 @@
         <v>74</v>
       </c>
       <c r="K43">
-        <v>0.4871794871794872</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2433,25 +2421,25 @@
         <v>75</v>
       </c>
       <c r="K44">
-        <v>0.453125</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2459,13 +2447,13 @@
         <v>76</v>
       </c>
       <c r="K45">
-        <v>0.4468085106382979</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2477,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2485,13 +2473,13 @@
         <v>77</v>
       </c>
       <c r="K46">
-        <v>0.4383561643835616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2503,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2511,13 +2499,13 @@
         <v>78</v>
       </c>
       <c r="K47">
-        <v>0.3770491803278688</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2529,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2537,25 +2525,25 @@
         <v>79</v>
       </c>
       <c r="K48">
-        <v>0.3472222222222222</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="L48">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>47</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2563,13 +2551,13 @@
         <v>80</v>
       </c>
       <c r="K49">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2581,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2589,22 +2577,22 @@
         <v>81</v>
       </c>
       <c r="K50">
-        <v>0.2061068702290076</v>
+        <v>0.2</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M50">
         <v>27</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>104</v>
@@ -2615,25 +2603,25 @@
         <v>82</v>
       </c>
       <c r="K51">
-        <v>0.2</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="N51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2641,13 +2629,13 @@
         <v>83</v>
       </c>
       <c r="K52">
-        <v>0.2</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2659,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2667,25 +2655,25 @@
         <v>84</v>
       </c>
       <c r="K53">
-        <v>0.184652278177458</v>
+        <v>0.1643192488262911</v>
       </c>
       <c r="L53">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="M53">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="N53">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O53">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>340</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2693,13 +2681,13 @@
         <v>85</v>
       </c>
       <c r="K54">
-        <v>0.1826923076923077</v>
+        <v>0.1635220125786163</v>
       </c>
       <c r="L54">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="M54">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2711,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>340</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2719,25 +2707,25 @@
         <v>86</v>
       </c>
       <c r="K55">
-        <v>0.1743119266055046</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2745,25 +2733,25 @@
         <v>87</v>
       </c>
       <c r="K56">
-        <v>0.1717791411042945</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2771,13 +2759,13 @@
         <v>88</v>
       </c>
       <c r="K57">
-        <v>0.1653543307086614</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2789,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2797,25 +2785,25 @@
         <v>89</v>
       </c>
       <c r="K58">
-        <v>0.1635220125786163</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="L58">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2823,25 +2811,25 @@
         <v>90</v>
       </c>
       <c r="K59">
-        <v>0.1549295774647887</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="L59">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O59">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2849,25 +2837,25 @@
         <v>91</v>
       </c>
       <c r="K60">
-        <v>0.1453488372093023</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="L60">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>147</v>
+        <v>784</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2875,13 +2863,13 @@
         <v>92</v>
       </c>
       <c r="K61">
-        <v>0.1348837209302326</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2893,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2901,25 +2889,25 @@
         <v>93</v>
       </c>
       <c r="K62">
-        <v>0.1341463414634146</v>
+        <v>0.1039755351681957</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M62">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>142</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2927,25 +2915,25 @@
         <v>94</v>
       </c>
       <c r="K63">
-        <v>0.12</v>
+        <v>0.09555555555555556</v>
       </c>
       <c r="L63">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="M63">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>286</v>
+        <v>814</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2953,25 +2941,25 @@
         <v>95</v>
       </c>
       <c r="K64">
-        <v>0.1195652173913044</v>
+        <v>0.09170305676855896</v>
       </c>
       <c r="L64">
+        <v>21</v>
+      </c>
+      <c r="M64">
         <v>22</v>
       </c>
-      <c r="M64">
-        <v>23</v>
-      </c>
       <c r="N64">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O64">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>162</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2979,25 +2967,25 @@
         <v>96</v>
       </c>
       <c r="K65">
-        <v>0.1129753914988814</v>
+        <v>0.09022556390977443</v>
       </c>
       <c r="L65">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>793</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3005,25 +2993,25 @@
         <v>97</v>
       </c>
       <c r="K66">
-        <v>0.1043478260869565</v>
+        <v>0.08554913294797688</v>
       </c>
       <c r="L66">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="M66">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>206</v>
+        <v>791</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3031,25 +3019,25 @@
         <v>98</v>
       </c>
       <c r="K67">
-        <v>0.0941358024691358</v>
+        <v>0.08469055374592833</v>
       </c>
       <c r="L67">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="M67">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>587</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3057,311 +3045,207 @@
         <v>99</v>
       </c>
       <c r="K68">
-        <v>0.08879023307436182</v>
+        <v>0.08057851239669421</v>
       </c>
       <c r="L68">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="M68">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>821</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="K69">
-        <v>0.08429561200923788</v>
+        <v>0.08054639660857277</v>
       </c>
       <c r="L69">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="M69">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="N69">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="O69">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>793</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K70">
-        <v>0.08270676691729323</v>
+        <v>0.07418856259659969</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M70">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N70">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O70">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>244</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K71">
-        <v>0.0782934833567745</v>
+        <v>0.04158004158004158</v>
       </c>
       <c r="L71">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="M71">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1966</v>
+        <v>922</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K72">
-        <v>0.07491856677524431</v>
+        <v>0.04110032362459547</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="M72">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>284</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K73">
-        <v>0.07231404958677685</v>
+        <v>0.03552397868561279</v>
       </c>
       <c r="L73">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M73">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N73">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="O73">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>449</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="K74">
-        <v>0.05763688760806916</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="M74">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="N74">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="O74">
-        <v>0.08999999999999997</v>
+        <v>0.24</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>327</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="K75">
-        <v>0.04792746113989637</v>
+        <v>0.02601908065915004</v>
       </c>
       <c r="L75">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="N75">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="O75">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="76" spans="10:17">
-      <c r="J76" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K76">
-        <v>0.0383419689119171</v>
-      </c>
-      <c r="L76">
-        <v>37</v>
-      </c>
-      <c r="M76">
-        <v>40</v>
-      </c>
-      <c r="N76">
-        <v>0.93</v>
-      </c>
-      <c r="O76">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P76" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17">
-      <c r="J77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K77">
-        <v>0.03539823008849557</v>
-      </c>
-      <c r="L77">
-        <v>20</v>
-      </c>
-      <c r="M77">
-        <v>22</v>
-      </c>
-      <c r="N77">
-        <v>0.91</v>
-      </c>
-      <c r="O77">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P77" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="78" spans="10:17">
-      <c r="J78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K78">
-        <v>0.02684775742261529</v>
-      </c>
-      <c r="L78">
-        <v>85</v>
-      </c>
-      <c r="M78">
-        <v>120</v>
-      </c>
-      <c r="N78">
-        <v>0.71</v>
-      </c>
-      <c r="O78">
-        <v>0.29</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>3081</v>
-      </c>
-    </row>
-    <row r="79" spans="10:17">
-      <c r="J79" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K79">
-        <v>0.01996527777777778</v>
-      </c>
-      <c r="L79">
-        <v>23</v>
-      </c>
-      <c r="M79">
-        <v>32</v>
-      </c>
-      <c r="N79">
-        <v>0.72</v>
-      </c>
-      <c r="O79">
-        <v>0.28</v>
-      </c>
-      <c r="P79" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
